--- a/AVT_TRAKING-b5a19f52c2a889d8592336db032ecf143043f8f5/AVT_TRAKING/AVT_TRAKING/Documents/ExcelDoc/Consultas para PBI.xlsx
+++ b/AVT_TRAKING-b5a19f52c2a889d8592336db032ecf143043f8f5/AVT_TRAKING/AVT_TRAKING/Documents/ExcelDoc/Consultas para PBI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\source\repos\AVT_TRAKING\AVT_TRAKING-b5a19f52c2a889d8592336db032ecf143043f8f5\AVT_TRAKING\AVT_TRAKING\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\source\repos\AVT_TRAKING\AVT_TRAKING-b5a19f52c2a889d8592336db032ecf143043f8f5\AVT_TRAKING\AVT_TRAKING\Documents\ExcelDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67FD7F1-33B5-4D39-B9F5-094DA68ED145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C0C513D-A6C3-42B1-95C8-E0799E4F2E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" firstSheet="5" activeTab="6" xr2:uid="{4A597B37-D286-42DF-92B7-76CFC10EE842}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" firstSheet="5" activeTab="12" xr2:uid="{4A597B37-D286-42DF-92B7-76CFC10EE842}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <definedName name="Consulta_desde_VRT_TRAKING" localSheetId="6" hidden="1">ScaBTools!$A$1:$O$3</definedName>
     <definedName name="Consulta_desde_VRT_TRAKING_1" localSheetId="3" hidden="1">ALLHours!$J$1:$P$8</definedName>
     <definedName name="Consulta_desde_VRT_TRAKING_1" localSheetId="7" hidden="1">ScaDTools!$A$1:$O$3</definedName>
-    <definedName name="Consulta_desde_VRT_TRAKING_1" localSheetId="5" hidden="1">Scaffold!$A$1:$M$14</definedName>
+    <definedName name="Consulta_desde_VRT_TRAKING_1" localSheetId="5" hidden="1">Scaffold!$A$1:$M$10</definedName>
     <definedName name="Consulta_desde_VRT_TRAKING_1" localSheetId="8" hidden="1">ScaMTools!$A$1:$O$3</definedName>
     <definedName name="Consulta_desde_VRT_TRAKING_2" localSheetId="2" hidden="1">ALLCPH!$L$1:$T$5</definedName>
     <definedName name="Consulta_desde_VRT_TRAKING_2" localSheetId="3" hidden="1">ALLHours!$S$1:$T$3</definedName>
@@ -49,6 +49,7 @@
     <definedName name="Consulta_desde_VRT_TRAKING_4" localSheetId="3" hidden="1">ALLHours!$A$1:$G$8</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -125,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="473">
   <si>
     <t>Year</t>
   </si>
@@ -1237,9 +1238,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>1144</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jibran Rios </t>
   </si>
   <si>
@@ -1294,18 +1292,9 @@
     <t>3349518</t>
   </si>
   <si>
-    <t>1138</t>
-  </si>
-  <si>
     <t>P1TICL Chlorination</t>
   </si>
   <si>
-    <t>01/03/2022</t>
-  </si>
-  <si>
-    <t>1139</t>
-  </si>
-  <si>
     <t>1140</t>
   </si>
   <si>
@@ -1319,15 +1308,6 @@
   </si>
   <si>
     <t>1148</t>
-  </si>
-  <si>
-    <t>3353054</t>
-  </si>
-  <si>
-    <t>1225</t>
-  </si>
-  <si>
-    <t>03/04/2022</t>
   </si>
   <si>
     <t>4404165949</t>
@@ -2138,8 +2118,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{66666BD4-1655-4F8D-912C-31F15E7D9075}" name="Tabla_Consulta_desde_VRT_TRAKING_116" displayName="Tabla_Consulta_desde_VRT_TRAKING_116" ref="A1:M14" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:M14" xr:uid="{66666BD4-1655-4F8D-912C-31F15E7D9075}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{66666BD4-1655-4F8D-912C-31F15E7D9075}" name="Tabla_Consulta_desde_VRT_TRAKING_116" displayName="Tabla_Consulta_desde_VRT_TRAKING_116" ref="A1:M10" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:M10" xr:uid="{66666BD4-1655-4F8D-912C-31F15E7D9075}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{29A217AE-0F20-4A24-BD2C-0A094E92D351}" uniqueName="1" name="Labor WO / Network #" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{3552D131-04B2-48BD-8367-15E6A615521A}" uniqueName="2" name="TYPE (O,M,T,C)" queryTableFieldId="2"/>
@@ -2977,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1600.0600000000004</v>
+        <v>1600.0600000000013</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2989,13 +2969,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1600.0600000000004</v>
+        <v>1600.0600000000013</v>
       </c>
       <c r="M5">
-        <v>160006.00000000003</v>
+        <v>160006.00000000012</v>
       </c>
       <c r="N5">
-        <v>-1600.0600000000004</v>
+        <v>-1600.0600000000013</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -3027,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>844.8</v>
+        <v>844.80000000000007</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3039,13 +3019,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>844.8</v>
+        <v>844.80000000000007</v>
       </c>
       <c r="M6">
         <v>84480</v>
       </c>
       <c r="N6">
-        <v>-844.8</v>
+        <v>-844.80000000000007</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -3077,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>342.43999999999988</v>
+        <v>342.43999999999994</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3089,13 +3069,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>342.43999999999988</v>
+        <v>342.43999999999994</v>
       </c>
       <c r="M7">
-        <v>34243.999999999985</v>
+        <v>34243.999999999993</v>
       </c>
       <c r="N7">
-        <v>-342.43999999999988</v>
+        <v>-342.43999999999994</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -3227,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1022.3149999999998</v>
+        <v>1022.3150000000001</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -3239,13 +3219,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1022.3149999999998</v>
+        <v>1022.3150000000001</v>
       </c>
       <c r="M10">
-        <v>102231.49999999999</v>
+        <v>102231.5</v>
       </c>
       <c r="N10">
-        <v>-1022.3149999999998</v>
+        <v>-1022.3150000000001</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -3277,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>465.58999999999992</v>
+        <v>465.58999999999986</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -3289,13 +3269,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>465.58999999999992</v>
+        <v>465.58999999999986</v>
       </c>
       <c r="M11">
-        <v>46558.999999999993</v>
+        <v>46558.999999999985</v>
       </c>
       <c r="N11">
-        <v>-465.58999999999992</v>
+        <v>-465.58999999999986</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -3327,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>527.16499999999985</v>
+        <v>527.16499999999996</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3339,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>527.16499999999985</v>
+        <v>527.16499999999996</v>
       </c>
       <c r="M12">
-        <v>52716.499999999985</v>
+        <v>52716.5</v>
       </c>
       <c r="N12">
-        <v>-527.16499999999985</v>
+        <v>-527.16499999999996</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -3477,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4913.7499999999991</v>
+        <v>4913.7499999999973</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3489,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4913.7499999999991</v>
+        <v>4913.7499999999973</v>
       </c>
       <c r="M15">
-        <v>491374.99999999988</v>
+        <v>491374.99999999971</v>
       </c>
       <c r="N15">
-        <v>-4913.7499999999991</v>
+        <v>-4913.7499999999973</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -3530,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1317.8000000000006</v>
+        <v>1317.8</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3539,13 +3519,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1317.8000000000006</v>
+        <v>1317.8</v>
       </c>
       <c r="M16">
-        <v>131780.00000000006</v>
+        <v>131780</v>
       </c>
       <c r="N16">
-        <v>-1317.8000000000006</v>
+        <v>-1317.8</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -3577,7 +3557,7 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>1091.1550000000002</v>
+        <v>1091.1550000000004</v>
       </c>
       <c r="I17">
         <v>55.65</v>
@@ -3589,13 +3569,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1146.8050000000003</v>
+        <v>1146.8050000000005</v>
       </c>
       <c r="M17">
-        <v>114680.50000000003</v>
+        <v>114680.50000000006</v>
       </c>
       <c r="N17">
-        <v>-1146.8050000000003</v>
+        <v>-1146.8050000000005</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -3627,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>700.39999999999986</v>
+        <v>700.40000000000009</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3639,13 +3619,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>700.39999999999986</v>
+        <v>700.40000000000009</v>
       </c>
       <c r="M18">
-        <v>124.18439716312054</v>
+        <v>124.18439716312059</v>
       </c>
       <c r="N18">
-        <v>-136.39999999999986</v>
+        <v>-136.40000000000009</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -3680,7 +3660,7 @@
         <v>1204.49</v>
       </c>
       <c r="I19">
-        <v>353.56000000000017</v>
+        <v>353.56000000000012</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -3727,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1104.415</v>
+        <v>1104.4150000000002</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -3739,13 +3719,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1104.415</v>
+        <v>1104.4150000000002</v>
       </c>
       <c r="M20">
-        <v>110441.5</v>
+        <v>110441.50000000001</v>
       </c>
       <c r="N20">
-        <v>-1104.415</v>
+        <v>-1104.4150000000002</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -3777,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2397.4900000000002</v>
+        <v>2397.4900000000011</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -3789,13 +3769,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2397.4900000000002</v>
+        <v>2397.4900000000011</v>
       </c>
       <c r="M21">
-        <v>239749.00000000003</v>
+        <v>239749.00000000012</v>
       </c>
       <c r="N21">
-        <v>-2397.4900000000002</v>
+        <v>-2397.4900000000011</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -3827,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1743.2400000000009</v>
+        <v>1743.2400000000005</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -3839,13 +3819,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1743.2400000000009</v>
+        <v>1743.2400000000005</v>
       </c>
       <c r="M22">
         <v>132.46504559270522</v>
       </c>
       <c r="N22">
-        <v>-427.24000000000092</v>
+        <v>-427.24000000000046</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -3927,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>588.7399999999999</v>
+        <v>588.73999999999978</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -3939,13 +3919,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>588.7399999999999</v>
+        <v>588.73999999999978</v>
       </c>
       <c r="M24">
-        <v>104.38652482269502</v>
+        <v>104.38652482269499</v>
       </c>
       <c r="N24">
-        <v>-24.739999999999895</v>
+        <v>-24.739999999999782</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -3977,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1676.4000000000003</v>
+        <v>1676.4</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -3989,13 +3969,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1676.4000000000003</v>
+        <v>1676.4</v>
       </c>
       <c r="M25">
-        <v>167640.00000000003</v>
+        <v>167640</v>
       </c>
       <c r="N25">
-        <v>-1676.4000000000003</v>
+        <v>-1676.4</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -4027,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1033.8049999999998</v>
+        <v>1033.8050000000001</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -4039,13 +4019,13 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1033.8049999999998</v>
+        <v>1033.8050000000001</v>
       </c>
       <c r="M26">
-        <v>103380.49999999999</v>
+        <v>103380.5</v>
       </c>
       <c r="N26">
-        <v>-1033.8049999999998</v>
+        <v>-1033.8050000000001</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -4227,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>991.88999999999987</v>
+        <v>991.89</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -4239,13 +4219,13 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>991.88999999999987</v>
+        <v>991.89</v>
       </c>
       <c r="M30">
-        <v>99188.999999999985</v>
+        <v>99189</v>
       </c>
       <c r="N30">
-        <v>-991.88999999999987</v>
+        <v>-991.89</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -4277,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>822.67999999999984</v>
+        <v>822.68</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -4289,13 +4269,13 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>822.67999999999984</v>
+        <v>822.68</v>
       </c>
       <c r="M31">
-        <v>82267.999999999985</v>
+        <v>82268</v>
       </c>
       <c r="N31">
-        <v>-822.67999999999984</v>
+        <v>-822.68</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -4327,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1248.0900000000001</v>
+        <v>1248.0899999999997</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -4339,13 +4319,13 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>1248.0900000000001</v>
+        <v>1248.0899999999997</v>
       </c>
       <c r="M32">
-        <v>124809.00000000001</v>
+        <v>124808.99999999997</v>
       </c>
       <c r="N32">
-        <v>-1248.0900000000001</v>
+        <v>-1248.0899999999997</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -4430,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>374.67999999999995</v>
+        <v>374.68000000000018</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -4439,13 +4419,13 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>374.67999999999995</v>
+        <v>374.68000000000018</v>
       </c>
       <c r="M34">
-        <v>132.86524822695034</v>
+        <v>132.8652482269504</v>
       </c>
       <c r="N34">
-        <v>-92.67999999999995</v>
+        <v>-92.680000000000177</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -4477,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>739.85499999999979</v>
+        <v>739.85500000000013</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -4489,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>739.85499999999979</v>
+        <v>739.85500000000013</v>
       </c>
       <c r="M35">
-        <v>73985.499999999985</v>
+        <v>73985.500000000015</v>
       </c>
       <c r="N35">
-        <v>-739.85499999999979</v>
+        <v>-739.85500000000013</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -4677,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>342.44</v>
+        <v>342.43999999999994</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -4689,13 +4669,13 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>342.44</v>
+        <v>342.43999999999994</v>
       </c>
       <c r="M39">
-        <v>34244</v>
+        <v>34243.999999999993</v>
       </c>
       <c r="N39">
-        <v>-342.44</v>
+        <v>-342.43999999999994</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -4830,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1660.7999999999997</v>
+        <v>1660.7999999999995</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -4839,13 +4819,13 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>1660.7999999999997</v>
+        <v>1660.7999999999995</v>
       </c>
       <c r="M42">
-        <v>147.23404255319147</v>
+        <v>147.23404255319144</v>
       </c>
       <c r="N42">
-        <v>-532.79999999999973</v>
+        <v>-532.7999999999995</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -4927,10 +4907,10 @@
         <v>6</v>
       </c>
       <c r="H44">
-        <v>4250.1699999999983</v>
+        <v>4250.1699999999973</v>
       </c>
       <c r="I44">
-        <v>384.51000000000005</v>
+        <v>384.51</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -4939,13 +4919,13 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>4634.6799999999985</v>
+        <v>4634.6799999999976</v>
       </c>
       <c r="M44">
-        <v>463467.99999999983</v>
+        <v>463467.99999999977</v>
       </c>
       <c r="N44">
-        <v>-4634.6799999999985</v>
+        <v>-4634.6799999999976</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -4977,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>481.10999999999996</v>
+        <v>481.10999999999984</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -4989,13 +4969,13 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>481.10999999999996</v>
+        <v>481.10999999999984</v>
       </c>
       <c r="M45">
-        <v>48110.999999999993</v>
+        <v>48110.999999999985</v>
       </c>
       <c r="N45">
-        <v>-481.10999999999996</v>
+        <v>-481.10999999999984</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -5027,7 +5007,7 @@
         <v>3</v>
       </c>
       <c r="H46">
-        <v>2555.4300000000007</v>
+        <v>2555.4299999999998</v>
       </c>
       <c r="I46">
         <v>172.20999999999998</v>
@@ -5039,13 +5019,13 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>2727.6400000000008</v>
+        <v>2727.64</v>
       </c>
       <c r="M46">
-        <v>272764.00000000006</v>
+        <v>272764</v>
       </c>
       <c r="N46">
-        <v>-2727.6400000000008</v>
+        <v>-2727.64</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -5080,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>2812.1199999999967</v>
+        <v>2812.1199999999976</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -5089,13 +5069,13 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>2812.1199999999967</v>
+        <v>2812.1199999999976</v>
       </c>
       <c r="M47">
-        <v>281211.99999999965</v>
+        <v>281211.99999999977</v>
       </c>
       <c r="N47">
-        <v>-2812.1199999999967</v>
+        <v>-2812.1199999999976</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -5127,10 +5107,10 @@
         <v>65</v>
       </c>
       <c r="H48">
-        <v>3101.3699999999985</v>
+        <v>3101.3700000000003</v>
       </c>
       <c r="I48">
-        <v>3703.6799999999967</v>
+        <v>3703.6799999999976</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -5139,13 +5119,13 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>6805.0499999999956</v>
+        <v>6805.0499999999975</v>
       </c>
       <c r="M48">
-        <v>680504.99999999953</v>
+        <v>680504.99999999977</v>
       </c>
       <c r="N48">
-        <v>-6805.0499999999956</v>
+        <v>-6805.0499999999975</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -5177,10 +5157,10 @@
         <v>209</v>
       </c>
       <c r="H49">
-        <v>307.875</v>
+        <v>307.87499999999994</v>
       </c>
       <c r="I49">
-        <v>12015.64500000002</v>
+        <v>12015.645000000011</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -5189,13 +5169,13 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>12323.52000000002</v>
+        <v>12323.520000000011</v>
       </c>
       <c r="M49">
-        <v>1232352.0000000021</v>
+        <v>1232352.0000000012</v>
       </c>
       <c r="N49">
-        <v>-12323.52000000002</v>
+        <v>-12323.520000000011</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -5280,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>658.6600000000002</v>
+        <v>658.66000000000008</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -5289,13 +5269,13 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>658.6600000000002</v>
+        <v>658.66000000000008</v>
       </c>
       <c r="M51">
         <v>65866.000000000015</v>
       </c>
       <c r="N51">
-        <v>-658.6600000000002</v>
+        <v>-658.66000000000008</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -5327,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>635.52499999999986</v>
+        <v>635.52499999999975</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -5339,13 +5319,13 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>635.52499999999986</v>
+        <v>635.52499999999975</v>
       </c>
       <c r="M52">
-        <v>63552.499999999985</v>
+        <v>63552.499999999978</v>
       </c>
       <c r="N52">
-        <v>-635.52499999999986</v>
+        <v>-635.52499999999975</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -5377,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>1797.0000000000002</v>
+        <v>1797</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -5389,13 +5369,13 @@
         <v>227.5</v>
       </c>
       <c r="L53">
-        <v>2024.5000000000002</v>
+        <v>2024.5</v>
       </c>
       <c r="M53">
-        <v>123.06990881458968</v>
+        <v>123.06990881458967</v>
       </c>
       <c r="N53">
-        <v>-379.50000000000023</v>
+        <v>-379.5</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -5427,7 +5407,7 @@
         <v>35</v>
       </c>
       <c r="H54">
-        <v>2865.400000000001</v>
+        <v>2865.3999999999992</v>
       </c>
       <c r="I54">
         <v>2058.4899999999989</v>
@@ -5439,13 +5419,13 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>4923.8899999999994</v>
+        <v>4923.8899999999976</v>
       </c>
       <c r="M54">
-        <v>492388.99999999994</v>
+        <v>492388.99999999977</v>
       </c>
       <c r="N54">
-        <v>-4923.8899999999994</v>
+        <v>-4923.8899999999976</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -5480,7 +5460,7 @@
         <v>1012.3</v>
       </c>
       <c r="I55">
-        <v>436.05999999999995</v>
+        <v>436.06000000000006</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -5489,13 +5469,13 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>1448.36</v>
+        <v>1448.3600000000001</v>
       </c>
       <c r="M55">
         <v>144836</v>
       </c>
       <c r="N55">
-        <v>-1448.36</v>
+        <v>-1448.3600000000001</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -5527,10 +5507,10 @@
         <v>5</v>
       </c>
       <c r="H56">
-        <v>539.43999999999994</v>
+        <v>539.43999999999983</v>
       </c>
       <c r="I56">
-        <v>319.03000000000003</v>
+        <v>319.03000000000009</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -5539,13 +5519,13 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>858.47</v>
+        <v>858.46999999999991</v>
       </c>
       <c r="M56">
-        <v>85847</v>
+        <v>85846.999999999985</v>
       </c>
       <c r="N56">
-        <v>-858.47</v>
+        <v>-858.46999999999991</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -5580,7 +5560,7 @@
         <v>554.95999999999981</v>
       </c>
       <c r="I57">
-        <v>551.45999999999992</v>
+        <v>551.46</v>
       </c>
       <c r="J57">
         <v>50</v>
@@ -5589,13 +5569,13 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>1156.4199999999996</v>
+        <v>1156.4199999999998</v>
       </c>
       <c r="M57">
-        <v>115641.99999999996</v>
+        <v>115641.99999999999</v>
       </c>
       <c r="N57">
-        <v>-1156.4199999999996</v>
+        <v>-1156.4199999999998</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -5630,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>1398.8799999999997</v>
+        <v>1398.88</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -5639,13 +5619,13 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>1398.8799999999997</v>
+        <v>1398.88</v>
       </c>
       <c r="M58">
-        <v>139887.99999999997</v>
+        <v>139888</v>
       </c>
       <c r="N58">
-        <v>-1398.8799999999997</v>
+        <v>-1398.88</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -5727,7 +5707,7 @@
         <v>7</v>
       </c>
       <c r="H60">
-        <v>1354.74</v>
+        <v>1354.7400000000005</v>
       </c>
       <c r="I60">
         <v>430.33000000000004</v>
@@ -5739,13 +5719,13 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>1785.0700000000002</v>
+        <v>1785.0700000000006</v>
       </c>
       <c r="M60">
-        <v>178507.00000000003</v>
+        <v>178507.00000000006</v>
       </c>
       <c r="N60">
-        <v>-1785.0700000000002</v>
+        <v>-1785.0700000000006</v>
       </c>
       <c r="O60">
         <v>0</v>
@@ -5827,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>610.05000000000007</v>
+        <v>610.04999999999995</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -5839,13 +5819,13 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>610.05000000000007</v>
+        <v>610.04999999999995</v>
       </c>
       <c r="M62">
-        <v>61005.000000000007</v>
+        <v>61004.999999999993</v>
       </c>
       <c r="N62">
-        <v>-610.05000000000007</v>
+        <v>-610.04999999999995</v>
       </c>
       <c r="O62">
         <v>0</v>
@@ -5927,10 +5907,10 @@
         <v>10</v>
       </c>
       <c r="H64">
-        <v>567.35</v>
+        <v>567.3499999999998</v>
       </c>
       <c r="I64">
-        <v>597.97</v>
+        <v>597.97000000000014</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -5939,13 +5919,13 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>1165.3200000000002</v>
+        <v>1165.32</v>
       </c>
       <c r="M64">
-        <v>116532.00000000001</v>
+        <v>116532</v>
       </c>
       <c r="N64">
-        <v>-1165.3200000000002</v>
+        <v>-1165.32</v>
       </c>
       <c r="O64">
         <v>0</v>
@@ -6077,10 +6057,10 @@
         <v>25</v>
       </c>
       <c r="H67">
-        <v>1177.4000000000001</v>
+        <v>1177.4000000000003</v>
       </c>
       <c r="I67">
-        <v>1443.2400000000002</v>
+        <v>1443.2399999999998</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -6127,7 +6107,7 @@
         <v>4</v>
       </c>
       <c r="H68">
-        <v>594.36</v>
+        <v>594.35999999999979</v>
       </c>
       <c r="I68">
         <v>223.29</v>
@@ -6139,13 +6119,13 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <v>817.65</v>
+        <v>817.64999999999975</v>
       </c>
       <c r="M68">
-        <v>81765</v>
+        <v>81764.999999999971</v>
       </c>
       <c r="N68">
-        <v>-817.65</v>
+        <v>-817.64999999999975</v>
       </c>
       <c r="O68">
         <v>0</v>
@@ -6177,10 +6157,10 @@
         <v>15</v>
       </c>
       <c r="H69">
-        <v>851.40000000000009</v>
+        <v>851.39999999999986</v>
       </c>
       <c r="I69">
-        <v>894.46</v>
+        <v>894.46000000000038</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -6227,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1521.2600000000004</v>
+        <v>1521.2600000000009</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6239,13 +6219,13 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>1521.2600000000004</v>
+        <v>1521.2600000000009</v>
       </c>
       <c r="M70">
-        <v>152126.00000000006</v>
+        <v>152126.00000000009</v>
       </c>
       <c r="N70">
-        <v>-1521.2600000000004</v>
+        <v>-1521.2600000000009</v>
       </c>
       <c r="O70">
         <v>0</v>
@@ -6327,7 +6307,7 @@
         <v>20</v>
       </c>
       <c r="H72">
-        <v>1606.660000000001</v>
+        <v>1606.6600000000003</v>
       </c>
       <c r="I72">
         <v>1176.28</v>
@@ -6339,13 +6319,13 @@
         <v>0</v>
       </c>
       <c r="L72">
-        <v>2782.940000000001</v>
+        <v>2782.9400000000005</v>
       </c>
       <c r="M72">
-        <v>278294.00000000012</v>
+        <v>278294.00000000006</v>
       </c>
       <c r="N72">
-        <v>-2782.940000000001</v>
+        <v>-2782.9400000000005</v>
       </c>
       <c r="O72">
         <v>0</v>
@@ -6480,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>1104.0800000000004</v>
+        <v>1104.08</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -6489,13 +6469,13 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>1104.0800000000004</v>
+        <v>1104.08</v>
       </c>
       <c r="M75">
-        <v>110408.00000000004</v>
+        <v>110408</v>
       </c>
       <c r="N75">
-        <v>-1104.0800000000004</v>
+        <v>-1104.08</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -6577,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>426.86</v>
+        <v>426.85999999999996</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -6589,13 +6569,13 @@
         <v>0</v>
       </c>
       <c r="L77">
-        <v>426.86</v>
+        <v>426.85999999999996</v>
       </c>
       <c r="M77">
-        <v>42686</v>
+        <v>42685.999999999993</v>
       </c>
       <c r="N77">
-        <v>-426.86</v>
+        <v>-426.85999999999996</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -6630,7 +6610,7 @@
         <v>5596.1299999999965</v>
       </c>
       <c r="I78">
-        <v>1792.9600000000003</v>
+        <v>1792.9599999999998</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -6677,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>674.80999999999983</v>
+        <v>674.81</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -6689,13 +6669,13 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>674.80999999999983</v>
+        <v>674.81</v>
       </c>
       <c r="M79">
-        <v>67480.999999999985</v>
+        <v>67481</v>
       </c>
       <c r="N79">
-        <v>-674.80999999999983</v>
+        <v>-674.81</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -6727,10 +6707,10 @@
         <v>12.5</v>
       </c>
       <c r="H80">
-        <v>768.45999999999981</v>
+        <v>768.46</v>
       </c>
       <c r="I80">
-        <v>735.17500000000018</v>
+        <v>735.17500000000007</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -6739,13 +6719,13 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>1503.635</v>
+        <v>1503.6350000000002</v>
       </c>
       <c r="M80">
-        <v>150363.5</v>
+        <v>150363.50000000003</v>
       </c>
       <c r="N80">
-        <v>-1503.635</v>
+        <v>-1503.6350000000002</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -6827,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1598.6400000000006</v>
+        <v>1598.6400000000012</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -6839,13 +6819,13 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <v>1598.6400000000006</v>
+        <v>1598.6400000000012</v>
       </c>
       <c r="M82">
-        <v>159864.00000000006</v>
+        <v>159864.00000000012</v>
       </c>
       <c r="N82">
-        <v>-1598.6400000000006</v>
+        <v>-1598.6400000000012</v>
       </c>
       <c r="O82">
         <v>0</v>
@@ -6877,10 +6857,10 @@
         <v>7</v>
       </c>
       <c r="H83">
-        <v>411.34</v>
+        <v>411.33999999999992</v>
       </c>
       <c r="I83">
-        <v>405.33</v>
+        <v>405.33000000000004</v>
       </c>
       <c r="J83">
         <v>10</v>
@@ -6927,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>1405.5500000000006</v>
+        <v>1405.5500000000004</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -6939,13 +6919,13 @@
         <v>0</v>
       </c>
       <c r="L84">
-        <v>1405.5500000000006</v>
+        <v>1405.5500000000004</v>
       </c>
       <c r="M84">
-        <v>149.52659574468092</v>
+        <v>149.52659574468089</v>
       </c>
       <c r="N84">
-        <v>-465.55000000000064</v>
+        <v>-465.55000000000041</v>
       </c>
       <c r="O84">
         <v>0</v>
@@ -6977,7 +6957,7 @@
         <v>2</v>
       </c>
       <c r="H85">
-        <v>835.70999999999992</v>
+        <v>835.70999999999981</v>
       </c>
       <c r="I85">
         <v>131.69</v>
@@ -7030,7 +7010,7 @@
         <v>591.05999999999995</v>
       </c>
       <c r="I86">
-        <v>790.82500000000005</v>
+        <v>790.82500000000016</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -7039,13 +7019,13 @@
         <v>0</v>
       </c>
       <c r="L86">
-        <v>1381.885</v>
+        <v>1381.8850000000002</v>
       </c>
       <c r="M86">
-        <v>138188.5</v>
+        <v>138188.50000000003</v>
       </c>
       <c r="N86">
-        <v>-1381.885</v>
+        <v>-1381.8850000000002</v>
       </c>
       <c r="O86">
         <v>0</v>
@@ -7077,7 +7057,7 @@
         <v>25</v>
       </c>
       <c r="H87">
-        <v>3590.9600000000005</v>
+        <v>3590.9600000000014</v>
       </c>
       <c r="I87">
         <v>1443.2399999999998</v>
@@ -7127,7 +7107,7 @@
         <v>9</v>
       </c>
       <c r="H88">
-        <v>1104.9099999999999</v>
+        <v>1104.9100000000001</v>
       </c>
       <c r="I88">
         <v>521.20000000000005</v>
@@ -7139,13 +7119,13 @@
         <v>0</v>
       </c>
       <c r="L88">
-        <v>1626.11</v>
+        <v>1626.1100000000001</v>
       </c>
       <c r="M88">
         <v>144.15868794326241</v>
       </c>
       <c r="N88">
-        <v>-498.1099999999999</v>
+        <v>-498.11000000000013</v>
       </c>
       <c r="O88">
         <v>0</v>
@@ -7230,7 +7210,7 @@
         <v>1879.2750000000008</v>
       </c>
       <c r="I90">
-        <v>7729.9449999999979</v>
+        <v>7729.9450000000061</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -7239,13 +7219,13 @@
         <v>100</v>
       </c>
       <c r="L90">
-        <v>9709.2199999999993</v>
+        <v>9709.2200000000066</v>
       </c>
       <c r="M90">
-        <v>970921.99999999988</v>
+        <v>970922.0000000007</v>
       </c>
       <c r="N90">
-        <v>-9709.2199999999993</v>
+        <v>-9709.2200000000066</v>
       </c>
       <c r="O90">
         <v>0</v>
@@ -7277,10 +7257,10 @@
         <v>8</v>
       </c>
       <c r="H91">
-        <v>1412.845</v>
+        <v>1412.8450000000009</v>
       </c>
       <c r="I91">
-        <v>485.98</v>
+        <v>485.98000000000008</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -7289,13 +7269,13 @@
         <v>0</v>
       </c>
       <c r="L91">
-        <v>1898.825</v>
+        <v>1898.825000000001</v>
       </c>
       <c r="M91">
-        <v>189882.5</v>
+        <v>189882.50000000009</v>
       </c>
       <c r="N91">
-        <v>-1898.825</v>
+        <v>-1898.825000000001</v>
       </c>
       <c r="O91">
         <v>0</v>
@@ -7327,7 +7307,7 @@
         <v>10</v>
       </c>
       <c r="H92">
-        <v>1718.3750000000005</v>
+        <v>1718.3750000000011</v>
       </c>
       <c r="I92">
         <v>579</v>
@@ -7339,13 +7319,13 @@
         <v>0</v>
       </c>
       <c r="L92">
-        <v>2297.3750000000005</v>
+        <v>2297.3750000000009</v>
       </c>
       <c r="M92">
-        <v>229737.50000000006</v>
+        <v>229737.50000000009</v>
       </c>
       <c r="N92">
-        <v>-2297.3750000000005</v>
+        <v>-2297.3750000000009</v>
       </c>
       <c r="O92">
         <v>0</v>
@@ -7377,10 +7357,10 @@
         <v>16</v>
       </c>
       <c r="H93">
-        <v>4836.5899999999956</v>
+        <v>4836.5899999999992</v>
       </c>
       <c r="I93">
-        <v>921.3100000000004</v>
+        <v>921.31000000000029</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -7389,13 +7369,13 @@
         <v>0</v>
       </c>
       <c r="L93">
-        <v>5757.899999999996</v>
+        <v>5757.9</v>
       </c>
       <c r="M93">
-        <v>575789.99999999965</v>
+        <v>575790</v>
       </c>
       <c r="N93">
-        <v>-5757.899999999996</v>
+        <v>-5757.9</v>
       </c>
       <c r="O93">
         <v>0</v>
@@ -7427,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>1084.4449999999999</v>
+        <v>1084.4450000000004</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -7439,13 +7419,13 @@
         <v>0</v>
       </c>
       <c r="L94">
-        <v>1084.4449999999999</v>
+        <v>1084.4450000000004</v>
       </c>
       <c r="M94">
-        <v>108444.5</v>
+        <v>108444.50000000004</v>
       </c>
       <c r="N94">
-        <v>-1084.4449999999999</v>
+        <v>-1084.4450000000004</v>
       </c>
       <c r="O94">
         <v>0</v>
@@ -7477,7 +7457,7 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>674.80999999999983</v>
+        <v>674.81000000000006</v>
       </c>
       <c r="I95">
         <v>55.65</v>
@@ -7489,13 +7469,13 @@
         <v>0</v>
       </c>
       <c r="L95">
-        <v>730.45999999999981</v>
+        <v>730.46</v>
       </c>
       <c r="M95">
-        <v>73045.999999999985</v>
+        <v>73046</v>
       </c>
       <c r="N95">
-        <v>-730.45999999999981</v>
+        <v>-730.46</v>
       </c>
       <c r="O95">
         <v>0</v>
@@ -7580,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>1009.3300000000002</v>
+        <v>1009.3300000000003</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -7589,13 +7569,13 @@
         <v>0</v>
       </c>
       <c r="L97">
-        <v>1009.3300000000002</v>
+        <v>1009.3300000000003</v>
       </c>
       <c r="M97">
-        <v>100933.00000000001</v>
+        <v>100933.00000000003</v>
       </c>
       <c r="N97">
-        <v>-1009.3300000000002</v>
+        <v>-1009.3300000000003</v>
       </c>
       <c r="O97">
         <v>0</v>
@@ -7627,7 +7607,7 @@
         <v>3</v>
       </c>
       <c r="H98">
-        <v>688.84999999999991</v>
+        <v>688.8499999999998</v>
       </c>
       <c r="I98">
         <v>162.38</v>
@@ -7639,13 +7619,13 @@
         <v>0</v>
       </c>
       <c r="L98">
-        <v>851.2299999999999</v>
+        <v>851.22999999999979</v>
       </c>
       <c r="M98">
         <v>85122.999999999985</v>
       </c>
       <c r="N98">
-        <v>-851.2299999999999</v>
+        <v>-851.22999999999979</v>
       </c>
       <c r="O98">
         <v>0</v>
@@ -7727,10 +7707,10 @@
         <v>27.5</v>
       </c>
       <c r="H100">
-        <v>1613.2000000000007</v>
+        <v>1613.1999999999998</v>
       </c>
       <c r="I100">
-        <v>1554.9850000000004</v>
+        <v>1554.9849999999992</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -7739,13 +7719,13 @@
         <v>0</v>
       </c>
       <c r="L100">
-        <v>3168.1850000000013</v>
+        <v>3168.184999999999</v>
       </c>
       <c r="M100">
-        <v>316818.50000000012</v>
+        <v>316818.49999999988</v>
       </c>
       <c r="N100">
-        <v>-3168.1850000000013</v>
+        <v>-3168.184999999999</v>
       </c>
       <c r="O100">
         <v>0</v>
@@ -7777,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>417.94</v>
+        <v>417.93999999999994</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -7789,13 +7769,13 @@
         <v>0</v>
       </c>
       <c r="L101">
-        <v>417.94</v>
+        <v>417.93999999999994</v>
       </c>
       <c r="M101">
-        <v>41794</v>
+        <v>41793.999999999993</v>
       </c>
       <c r="N101">
-        <v>-417.94</v>
+        <v>-417.93999999999994</v>
       </c>
       <c r="O101">
         <v>0</v>
@@ -7827,7 +7807,7 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>433.46</v>
+        <v>433.45999999999981</v>
       </c>
       <c r="I102">
         <v>55.65</v>
@@ -7839,13 +7819,13 @@
         <v>0</v>
       </c>
       <c r="L102">
-        <v>489.10999999999996</v>
+        <v>489.10999999999979</v>
       </c>
       <c r="M102">
-        <v>48910.999999999993</v>
+        <v>48910.999999999978</v>
       </c>
       <c r="N102">
-        <v>-489.10999999999996</v>
+        <v>-489.10999999999979</v>
       </c>
       <c r="O102">
         <v>0</v>
@@ -7877,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>417.93999999999994</v>
+        <v>417.93999999999988</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -7889,13 +7869,13 @@
         <v>0</v>
       </c>
       <c r="L103">
-        <v>417.93999999999994</v>
+        <v>417.93999999999988</v>
       </c>
       <c r="M103">
-        <v>41793.999999999993</v>
+        <v>41793.999999999985</v>
       </c>
       <c r="N103">
-        <v>-417.93999999999994</v>
+        <v>-417.93999999999988</v>
       </c>
       <c r="O103">
         <v>0</v>
@@ -7977,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>594.36</v>
+        <v>594.3599999999999</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -7989,13 +7969,13 @@
         <v>0</v>
       </c>
       <c r="L105">
-        <v>594.36</v>
+        <v>594.3599999999999</v>
       </c>
       <c r="M105">
-        <v>59436</v>
+        <v>59435.999999999993</v>
       </c>
       <c r="N105">
-        <v>-594.36</v>
+        <v>-594.3599999999999</v>
       </c>
       <c r="O105">
         <v>0</v>
@@ -8127,10 +8107,10 @@
         <v>6</v>
       </c>
       <c r="H108">
-        <v>665.83500000000004</v>
+        <v>665.8349999999997</v>
       </c>
       <c r="I108">
-        <v>353.56000000000006</v>
+        <v>353.56</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -8139,13 +8119,13 @@
         <v>0</v>
       </c>
       <c r="L108">
-        <v>1019.3950000000001</v>
+        <v>1019.3949999999998</v>
       </c>
       <c r="M108">
-        <v>90.371897163120579</v>
+        <v>90.371897163120536</v>
       </c>
       <c r="N108">
-        <v>108.6049999999999</v>
+        <v>108.60500000000025</v>
       </c>
       <c r="O108">
         <v>0</v>
@@ -8177,7 +8157,7 @@
         <v>10</v>
       </c>
       <c r="H109">
-        <v>2657.6500000000005</v>
+        <v>2657.6500000000015</v>
       </c>
       <c r="I109">
         <v>638.06000000000006</v>
@@ -8189,13 +8169,13 @@
         <v>0</v>
       </c>
       <c r="L109">
-        <v>3295.7100000000005</v>
+        <v>3295.7100000000014</v>
       </c>
       <c r="M109">
-        <v>329571.00000000006</v>
+        <v>329571.00000000012</v>
       </c>
       <c r="N109">
-        <v>-3295.7100000000005</v>
+        <v>-3295.7100000000014</v>
       </c>
       <c r="O109">
         <v>0</v>
@@ -8277,7 +8257,7 @@
         <v>9</v>
       </c>
       <c r="H111">
-        <v>1091.1600000000003</v>
+        <v>1091.1600000000001</v>
       </c>
       <c r="I111">
         <v>487.14</v>
@@ -8330,7 +8310,7 @@
         <v>1393.2450000000006</v>
       </c>
       <c r="I112">
-        <v>162.38</v>
+        <v>162.38000000000002</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -8339,13 +8319,13 @@
         <v>0</v>
       </c>
       <c r="L112">
-        <v>1555.6250000000005</v>
+        <v>1555.6250000000007</v>
       </c>
       <c r="M112">
         <v>155562.50000000006</v>
       </c>
       <c r="N112">
-        <v>-1555.6250000000005</v>
+        <v>-1555.6250000000007</v>
       </c>
       <c r="O112">
         <v>0</v>
@@ -8377,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>2509.7600000000007</v>
+        <v>2509.7600000000011</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -8389,13 +8369,13 @@
         <v>0</v>
       </c>
       <c r="L113">
-        <v>2509.7600000000007</v>
+        <v>2509.7600000000011</v>
       </c>
       <c r="M113">
-        <v>250976.00000000006</v>
+        <v>250976.00000000012</v>
       </c>
       <c r="N113">
-        <v>-2509.7600000000007</v>
+        <v>-2509.7600000000011</v>
       </c>
       <c r="O113">
         <v>0</v>
@@ -8427,7 +8407,7 @@
         <v>28</v>
       </c>
       <c r="H114">
-        <v>3856.0650000000001</v>
+        <v>3856.0649999999996</v>
       </c>
       <c r="I114">
         <v>1603.1999999999998</v>
@@ -8477,10 +8457,10 @@
         <v>14</v>
       </c>
       <c r="H115">
-        <v>3213.3200000000006</v>
+        <v>3213.320000000002</v>
       </c>
       <c r="I115">
-        <v>769.96000000000038</v>
+        <v>769.96000000000015</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -8489,13 +8469,13 @@
         <v>0</v>
       </c>
       <c r="L115">
-        <v>3983.2800000000011</v>
+        <v>3983.280000000002</v>
       </c>
       <c r="M115">
-        <v>398328.00000000012</v>
+        <v>398328.00000000017</v>
       </c>
       <c r="N115">
-        <v>-3983.2800000000011</v>
+        <v>-3983.280000000002</v>
       </c>
       <c r="O115">
         <v>0</v>
@@ -8530,7 +8510,7 @@
         <v>41.05</v>
       </c>
       <c r="I116">
-        <v>632.49999999999989</v>
+        <v>632.50000000000011</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -8539,13 +8519,13 @@
         <v>0</v>
       </c>
       <c r="L116">
-        <v>673.54999999999984</v>
+        <v>673.55000000000007</v>
       </c>
       <c r="M116">
-        <v>59.711879432624102</v>
+        <v>59.711879432624116</v>
       </c>
       <c r="N116">
-        <v>454.45000000000016</v>
+        <v>454.44999999999993</v>
       </c>
       <c r="O116">
         <v>0</v>
@@ -8577,7 +8557,7 @@
         <v>10</v>
       </c>
       <c r="H117">
-        <v>2583.7350000000015</v>
+        <v>2583.7350000000006</v>
       </c>
       <c r="I117">
         <v>607.80000000000018</v>
@@ -8589,13 +8569,13 @@
         <v>0</v>
       </c>
       <c r="L117">
-        <v>3191.5350000000017</v>
+        <v>3191.5350000000008</v>
       </c>
       <c r="M117">
-        <v>319153.50000000017</v>
+        <v>319153.50000000006</v>
       </c>
       <c r="N117">
-        <v>-3191.5350000000017</v>
+        <v>-3191.5350000000008</v>
       </c>
       <c r="O117">
         <v>0</v>
@@ -8627,10 +8607,10 @@
         <v>36</v>
       </c>
       <c r="H118">
-        <v>2646.1100000000006</v>
+        <v>2646.110000000001</v>
       </c>
       <c r="I118">
-        <v>2130.92</v>
+        <v>2130.9199999999996</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -8777,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>1300.375</v>
+        <v>1300.3750000000002</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -8789,13 +8769,13 @@
         <v>0</v>
       </c>
       <c r="L121">
-        <v>1300.375</v>
+        <v>1300.3750000000002</v>
       </c>
       <c r="M121">
-        <v>130037.5</v>
+        <v>130037.50000000003</v>
       </c>
       <c r="N121">
-        <v>-1300.375</v>
+        <v>-1300.3750000000002</v>
       </c>
       <c r="O121">
         <v>0</v>
@@ -8827,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>531.13499999999999</v>
+        <v>531.13499999999988</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -8839,13 +8819,13 @@
         <v>0</v>
       </c>
       <c r="L122">
-        <v>531.13499999999999</v>
+        <v>531.13499999999988</v>
       </c>
       <c r="M122">
-        <v>53113.5</v>
+        <v>53113.499999999985</v>
       </c>
       <c r="N122">
-        <v>-531.13499999999999</v>
+        <v>-531.13499999999988</v>
       </c>
       <c r="O122">
         <v>0</v>
@@ -8877,7 +8857,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>650.98499999999979</v>
+        <v>650.9849999999999</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -8889,13 +8869,13 @@
         <v>0</v>
       </c>
       <c r="L123">
-        <v>650.98499999999979</v>
+        <v>650.9849999999999</v>
       </c>
       <c r="M123">
-        <v>65098.499999999978</v>
+        <v>65098.499999999993</v>
       </c>
       <c r="N123">
-        <v>-650.98499999999979</v>
+        <v>-650.9849999999999</v>
       </c>
       <c r="O123">
         <v>0</v>
@@ -9027,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>946.69999999999993</v>
+        <v>946.70000000000016</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -9039,13 +9019,13 @@
         <v>0</v>
       </c>
       <c r="L126">
-        <v>946.69999999999993</v>
+        <v>946.70000000000016</v>
       </c>
       <c r="M126">
-        <v>94670</v>
+        <v>94670.000000000015</v>
       </c>
       <c r="N126">
-        <v>-946.69999999999993</v>
+        <v>-946.70000000000016</v>
       </c>
       <c r="O126">
         <v>0</v>
@@ -9077,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>1512.400000000001</v>
+        <v>1512.4000000000005</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -9089,13 +9069,13 @@
         <v>0</v>
       </c>
       <c r="L127">
-        <v>1512.400000000001</v>
+        <v>1512.4000000000005</v>
       </c>
       <c r="M127">
-        <v>151240.00000000009</v>
+        <v>151240.00000000006</v>
       </c>
       <c r="N127">
-        <v>-1512.400000000001</v>
+        <v>-1512.4000000000005</v>
       </c>
       <c r="O127">
         <v>0</v>
@@ -9127,10 +9107,10 @@
         <v>6</v>
       </c>
       <c r="H128">
-        <v>770.95</v>
+        <v>770.94999999999993</v>
       </c>
       <c r="I128">
-        <v>379.94000000000005</v>
+        <v>379.94</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -9139,13 +9119,13 @@
         <v>0</v>
       </c>
       <c r="L128">
-        <v>1150.8900000000001</v>
+        <v>1150.8899999999999</v>
       </c>
       <c r="M128">
-        <v>115089.00000000001</v>
+        <v>115088.99999999999</v>
       </c>
       <c r="N128">
-        <v>-1150.8900000000001</v>
+        <v>-1150.8899999999999</v>
       </c>
       <c r="O128">
         <v>0</v>
@@ -9177,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>755.2600000000001</v>
+        <v>755.26</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -9189,13 +9169,13 @@
         <v>0</v>
       </c>
       <c r="L129">
-        <v>755.2600000000001</v>
+        <v>755.26</v>
       </c>
       <c r="M129">
-        <v>75526.000000000015</v>
+        <v>75526</v>
       </c>
       <c r="N129">
-        <v>-755.2600000000001</v>
+        <v>-755.26</v>
       </c>
       <c r="O129">
         <v>0</v>
@@ -9380,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="I133">
-        <v>1764.42</v>
+        <v>1764.4199999999996</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -9389,13 +9369,13 @@
         <v>0</v>
       </c>
       <c r="L133">
-        <v>1764.42</v>
+        <v>1764.4199999999996</v>
       </c>
       <c r="M133">
-        <v>46.926063829787232</v>
+        <v>46.926063829787225</v>
       </c>
       <c r="N133">
-        <v>1995.58</v>
+        <v>1995.5800000000004</v>
       </c>
       <c r="O133">
         <v>0</v>
@@ -9473,7 +9453,7 @@
         <v>333</v>
       </c>
       <c r="D2" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E2">
         <v>135.87388226775855</v>
@@ -9502,7 +9482,7 @@
         <v>333</v>
       </c>
       <c r="D3" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E3">
         <v>341.38640169009085</v>
@@ -9554,19 +9534,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="F1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="G1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -9577,19 +9557,19 @@
         <v>4501160317</v>
       </c>
       <c r="C2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D2">
         <v>164.20000000000002</v>
       </c>
       <c r="E2" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F2" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G2">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -9600,19 +9580,19 @@
         <v>4501160318</v>
       </c>
       <c r="C3" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D3">
         <v>179.77499999999998</v>
       </c>
       <c r="E3" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F3" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G3">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -9623,19 +9603,19 @@
         <v>4501160319</v>
       </c>
       <c r="C4" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D4">
         <v>3457.4400000000014</v>
       </c>
       <c r="E4" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F4" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G4">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -9646,19 +9626,19 @@
         <v>4501160320</v>
       </c>
       <c r="C5" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D5">
         <v>395.76499999999999</v>
       </c>
       <c r="E5" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F5" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G5">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -9669,19 +9649,19 @@
         <v>4501160317</v>
       </c>
       <c r="C6" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D6">
         <v>7424.8749999999945</v>
       </c>
       <c r="E6" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F6" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G6">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -9692,19 +9672,19 @@
         <v>4501160318</v>
       </c>
       <c r="C7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D7">
         <v>5058.6499999999987</v>
       </c>
       <c r="E7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G7">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -9715,19 +9695,19 @@
         <v>4501160319</v>
       </c>
       <c r="C8" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D8">
         <v>3967.1599999999994</v>
       </c>
       <c r="E8" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F8" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G8">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -9738,19 +9718,19 @@
         <v>4501160320</v>
       </c>
       <c r="C9" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D9">
         <v>2664.2250000000013</v>
       </c>
       <c r="E9" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F9" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G9">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -9797,55 +9777,55 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I1" t="s">
+        <v>451</v>
+      </c>
+      <c r="J1" t="s">
+        <v>452</v>
+      </c>
+      <c r="K1" t="s">
+        <v>453</v>
+      </c>
+      <c r="L1" t="s">
         <v>454</v>
       </c>
-      <c r="E1" t="s">
-        <v>446</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>455</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>456</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>457</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>458</v>
-      </c>
-      <c r="J1" t="s">
-        <v>459</v>
-      </c>
-      <c r="K1" t="s">
-        <v>460</v>
-      </c>
-      <c r="L1" t="s">
-        <v>461</v>
-      </c>
-      <c r="M1" t="s">
-        <v>462</v>
-      </c>
-      <c r="N1" t="s">
-        <v>463</v>
-      </c>
-      <c r="O1" t="s">
-        <v>464</v>
-      </c>
-      <c r="P1" t="s">
-        <v>465</v>
       </c>
       <c r="Q1" t="s">
         <v>10</v>
       </c>
       <c r="R1" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -9859,10 +9839,10 @@
         <v>4501160317</v>
       </c>
       <c r="D2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E2" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -9915,10 +9895,10 @@
         <v>4501160318</v>
       </c>
       <c r="D3" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="E3" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F3">
         <v>4.5</v>
@@ -9971,10 +9951,10 @@
         <v>4501160319</v>
       </c>
       <c r="D4" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E4" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F4">
         <v>82</v>
@@ -10027,10 +10007,10 @@
         <v>4501160320</v>
       </c>
       <c r="D5" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="E5" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F5">
         <v>9.5</v>
@@ -10083,10 +10063,10 @@
         <v>4501160317</v>
       </c>
       <c r="D6" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E6" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F6">
         <v>159.5</v>
@@ -10139,10 +10119,10 @@
         <v>4501160318</v>
       </c>
       <c r="D7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="E7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F7">
         <v>120</v>
@@ -10195,10 +10175,10 @@
         <v>4501160319</v>
       </c>
       <c r="D8" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E8" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F8">
         <v>93</v>
@@ -10251,10 +10231,10 @@
         <v>4501160320</v>
       </c>
       <c r="D9" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="E9" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F9">
         <v>61.5</v>
@@ -10308,8 +10288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03570844-70FE-4112-93CA-A7F795C1F67A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10327,10 +10307,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -10338,10 +10318,10 @@
         <v>56213200</v>
       </c>
       <c r="B2" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C2" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -10349,10 +10329,10 @@
         <v>56403200</v>
       </c>
       <c r="B3" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C3" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -10360,10 +10340,10 @@
         <v>56403300</v>
       </c>
       <c r="B4" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C4" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -10371,10 +10351,10 @@
         <v>56403600</v>
       </c>
       <c r="B5" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C5" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -10382,10 +10362,10 @@
         <v>56500300</v>
       </c>
       <c r="B6" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C6" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -17742,7 +17722,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E565F3-85F6-4F7A-B49A-A8C09E369B8E}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -17790,19 +17770,19 @@
         <v>366</v>
       </c>
       <c r="I1" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="J1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="K1" t="s">
         <v>367</v>
       </c>
       <c r="L1" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="M1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -17813,31 +17793,31 @@
         <v>369</v>
       </c>
       <c r="C2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D2" t="s">
         <v>370</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
         <v>371</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H2" t="s">
         <v>372</v>
       </c>
-      <c r="G2" t="s">
-        <v>372</v>
-      </c>
-      <c r="H2" t="s">
-        <v>373</v>
-      </c>
       <c r="I2">
-        <v>64</v>
+        <v>254</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="L2">
         <v>41.878304320317802</v>
@@ -17848,37 +17828,37 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B3" t="s">
         <v>369</v>
       </c>
       <c r="C3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G3" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H3" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="I3">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.64</v>
+        <v>0.12</v>
       </c>
       <c r="L3">
         <v>41.878304320317802</v>
@@ -17889,37 +17869,37 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s">
         <v>369</v>
       </c>
       <c r="C4" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G4" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H4" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I4">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="L4">
         <v>41.878304320317802</v>
@@ -17930,37 +17910,37 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
         <v>369</v>
       </c>
       <c r="C5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D5" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G5" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H5" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="I5">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="L5">
         <v>41.878304320317802</v>
@@ -17971,37 +17951,37 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B6" t="s">
         <v>369</v>
       </c>
       <c r="C6" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D6" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H6" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="I6">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.04</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="L6">
         <v>41.878304320317802</v>
@@ -18012,37 +17992,37 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B7" t="s">
         <v>369</v>
       </c>
       <c r="C7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H7" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.14000000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="L7">
         <v>41.878304320317802</v>
@@ -18053,7 +18033,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B8" t="s">
         <v>369</v>
@@ -18062,22 +18042,22 @@
         <v>392</v>
       </c>
       <c r="D8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H8" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="I8">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -18094,7 +18074,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B9" t="s">
         <v>369</v>
@@ -18103,238 +18083,74 @@
         <v>393</v>
       </c>
       <c r="D9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G9" t="s">
+        <v>388</v>
+      </c>
+      <c r="H9" t="s">
         <v>390</v>
       </c>
-      <c r="G9" t="s">
-        <v>390</v>
-      </c>
-      <c r="H9" t="s">
-        <v>394</v>
-      </c>
       <c r="I9">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.3000000000000007</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="L9">
-        <v>41.878304320317802</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>-87.624314409585395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="C10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D10" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="G10" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="H10" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="I10">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.17</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>41.878304320317802</v>
       </c>
       <c r="M10">
-        <v>-87.624314409585395</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>388</v>
-      </c>
-      <c r="B11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C11" t="s">
-        <v>396</v>
-      </c>
-      <c r="D11" t="s">
-        <v>371</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>390</v>
-      </c>
-      <c r="G11" t="s">
-        <v>390</v>
-      </c>
-      <c r="H11" t="s">
-        <v>378</v>
-      </c>
-      <c r="I11">
-        <v>255</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0.09</v>
-      </c>
-      <c r="L11">
-        <v>41.878304320317802</v>
-      </c>
-      <c r="M11">
-        <v>-87.624314409585395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>388</v>
-      </c>
-      <c r="B12" t="s">
-        <v>369</v>
-      </c>
-      <c r="C12" t="s">
-        <v>397</v>
-      </c>
-      <c r="D12" t="s">
-        <v>371</v>
-      </c>
-      <c r="E12">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>390</v>
-      </c>
-      <c r="G12" t="s">
-        <v>390</v>
-      </c>
-      <c r="H12" t="s">
-        <v>394</v>
-      </c>
-      <c r="I12">
-        <v>199</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>398</v>
-      </c>
-      <c r="B13" t="s">
-        <v>369</v>
-      </c>
-      <c r="C13" t="s">
-        <v>399</v>
-      </c>
-      <c r="D13" t="s">
-        <v>371</v>
-      </c>
-      <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>390</v>
-      </c>
-      <c r="G13" t="s">
-        <v>390</v>
-      </c>
-      <c r="H13" t="s">
-        <v>400</v>
-      </c>
-      <c r="I13">
-        <v>9</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0.24</v>
-      </c>
-      <c r="L13">
-        <v>41.878304320317802</v>
-      </c>
-      <c r="M13">
-        <v>-87.624314409585395</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>401</v>
-      </c>
-      <c r="B14" t="s">
-        <v>402</v>
-      </c>
-      <c r="C14" t="s">
-        <v>403</v>
-      </c>
-      <c r="D14" t="s">
-        <v>404</v>
-      </c>
-      <c r="E14">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>405</v>
-      </c>
-      <c r="G14" t="s">
-        <v>405</v>
-      </c>
-      <c r="H14" t="s">
-        <v>406</v>
-      </c>
-      <c r="I14">
-        <v>248</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>41.878304320317802</v>
-      </c>
-      <c r="M14">
         <v>-87.624314409585395</v>
       </c>
     </row>
@@ -18351,7 +18167,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F73EB5A-9915-4719-8C85-5ED5FA63B0D6}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18377,46 +18195,46 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G1" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I1" t="s">
         <v>409</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>410</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>411</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
+        <v>420</v>
+      </c>
+      <c r="M1" t="s">
         <v>412</v>
       </c>
-      <c r="F1" t="s">
-        <v>413</v>
-      </c>
-      <c r="G1" t="s">
-        <v>414</v>
-      </c>
-      <c r="H1" t="s">
-        <v>415</v>
-      </c>
-      <c r="I1" t="s">
-        <v>416</v>
-      </c>
-      <c r="J1" t="s">
-        <v>417</v>
-      </c>
-      <c r="K1" t="s">
-        <v>418</v>
-      </c>
-      <c r="L1" t="s">
-        <v>427</v>
-      </c>
-      <c r="M1" t="s">
-        <v>419</v>
-      </c>
       <c r="N1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="O1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -18454,7 +18272,7 @@
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="M2">
         <v>55</v>
@@ -18501,7 +18319,7 @@
         <v>17.5</v>
       </c>
       <c r="L3" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="M3">
         <v>58</v>
@@ -18554,46 +18372,46 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H1" t="s">
+        <v>418</v>
+      </c>
+      <c r="I1" t="s">
+        <v>419</v>
+      </c>
+      <c r="J1" t="s">
+        <v>410</v>
+      </c>
+      <c r="K1" t="s">
+        <v>421</v>
+      </c>
+      <c r="L1" t="s">
         <v>420</v>
       </c>
-      <c r="D1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
+        <v>412</v>
+      </c>
+      <c r="N1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O1" t="s">
         <v>423</v>
-      </c>
-      <c r="G1" t="s">
-        <v>424</v>
-      </c>
-      <c r="H1" t="s">
-        <v>425</v>
-      </c>
-      <c r="I1" t="s">
-        <v>426</v>
-      </c>
-      <c r="J1" t="s">
-        <v>417</v>
-      </c>
-      <c r="K1" t="s">
-        <v>428</v>
-      </c>
-      <c r="L1" t="s">
-        <v>427</v>
-      </c>
-      <c r="M1" t="s">
-        <v>419</v>
-      </c>
-      <c r="N1" t="s">
-        <v>478</v>
-      </c>
-      <c r="O1" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -18631,7 +18449,7 @@
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="M2">
         <v>8</v>
@@ -18678,7 +18496,7 @@
         <v>34.5</v>
       </c>
       <c r="L3" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="M3">
         <v>8</v>
@@ -18728,46 +18546,46 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1" t="s">
+        <v>430</v>
+      </c>
+      <c r="I1" t="s">
+        <v>431</v>
+      </c>
+      <c r="J1" t="s">
+        <v>410</v>
+      </c>
+      <c r="K1" t="s">
         <v>432</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
+        <v>420</v>
+      </c>
+      <c r="M1" t="s">
         <v>433</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O1" t="s">
         <v>434</v>
-      </c>
-      <c r="F1" t="s">
-        <v>435</v>
-      </c>
-      <c r="G1" t="s">
-        <v>436</v>
-      </c>
-      <c r="H1" t="s">
-        <v>437</v>
-      </c>
-      <c r="I1" t="s">
-        <v>438</v>
-      </c>
-      <c r="J1" t="s">
-        <v>417</v>
-      </c>
-      <c r="K1" t="s">
-        <v>439</v>
-      </c>
-      <c r="L1" t="s">
-        <v>427</v>
-      </c>
-      <c r="M1" t="s">
-        <v>440</v>
-      </c>
-      <c r="N1" t="s">
-        <v>478</v>
-      </c>
-      <c r="O1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -18805,7 +18623,7 @@
         <v>32.5</v>
       </c>
       <c r="L2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -18852,7 +18670,7 @@
         <v>5</v>
       </c>
       <c r="L3" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="M3">
         <v>0</v>
